--- a/4_TestCaseSuite_v1.xlsx
+++ b/4_TestCaseSuite_v1.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="2"/>
+    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
     <sheet name="Test Scenarios" sheetId="33" r:id="rId2"/>
-    <sheet name="New Cust" sheetId="1" r:id="rId3"/>
+    <sheet name="New Customer" sheetId="1" r:id="rId3"/>
+    <sheet name="Edit Customer" sheetId="34" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'New Cust'!$B$2:$N$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Edit Customer'!$B$2:$N$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'New Customer'!$B$2:$N$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="212">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -197,38 +199,6 @@
   </si>
   <si>
     <t>TC_NC_002</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(TS_001)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>New Customer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(TS_002) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Edit Customer</t>
-    </r>
   </si>
   <si>
     <r>
@@ -931,6 +901,253 @@
   </si>
   <si>
     <t>1. Radio button not selected</t>
+  </si>
+  <si>
+    <t>(TS_001)
+New Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(TS_002) 
+Edit Customer</t>
+  </si>
+  <si>
+    <t>UC2</t>
+  </si>
+  <si>
+    <t>TS_002
+New Customer</t>
+  </si>
+  <si>
+    <t>TC_EC_001</t>
+  </si>
+  <si>
+    <t>TC_EC_002</t>
+  </si>
+  <si>
+    <t>TC_EC_003</t>
+  </si>
+  <si>
+    <t>TC_EC_004</t>
+  </si>
+  <si>
+    <t>TC_EC_007</t>
+  </si>
+  <si>
+    <t>TC_EC_008</t>
+  </si>
+  <si>
+    <t>TC_EC_009</t>
+  </si>
+  <si>
+    <t>TC_EC_010</t>
+  </si>
+  <si>
+    <t>TC_EC_011</t>
+  </si>
+  <si>
+    <t>TC_EC_012</t>
+  </si>
+  <si>
+    <t>TC_EC_013</t>
+  </si>
+  <si>
+    <t>TC_EC_014</t>
+  </si>
+  <si>
+    <t>TC_EC_015</t>
+  </si>
+  <si>
+    <t>TC_EC_016</t>
+  </si>
+  <si>
+    <t>TC_EC_017</t>
+  </si>
+  <si>
+    <t>TC_EC_018</t>
+  </si>
+  <si>
+    <t>TC_EC_019</t>
+  </si>
+  <si>
+    <t>TC_EC_020</t>
+  </si>
+  <si>
+    <t>TC_EC_021</t>
+  </si>
+  <si>
+    <t>TC_EC_022</t>
+  </si>
+  <si>
+    <t>TC_EC_023</t>
+  </si>
+  <si>
+    <t>Validate all the fields in the Edit Customer page have the proper placeholders</t>
+  </si>
+  <si>
+    <t>1. Application logged in successfully</t>
+  </si>
+  <si>
+    <t>Validate Customer Id can not be empty</t>
+  </si>
+  <si>
+    <t>1. Do not enter any value in customer Id field
+2. press 'submit' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Application logged in successfully
+</t>
+  </si>
+  <si>
+    <t>Invalid PIN formats:
+1]  12345 (less than 6 digit)
+2]  abcde (Non Numeric )
+3]  1234567 (more than 6 digit)
+Valid PIN formats:
+1]  123456 ( equl to 6 digit)</t>
+  </si>
+  <si>
+    <t>Invalid Telephone Field formats:
+1]  12345 (less than 10 digit)
+2]  abcde (Non Numeric )
+3]  1234567 (more than 10 digit)
+Valid Telephone Field formats:
+1]  990011223344 ( equl to 10 digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Email Field formats:
+1]  name123
+2]  name@
+Valid Email Field formats:
+1]  name1name@gmail.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid formats:
+1] 1234
+2] name123
+3] 564name
+Valid formats:
+1] name(A to Z )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid formats:
+name()/
+name&amp;name
+!@#$%&amp;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid formats:
+1] 1234
+2] city123
+3] 564state
+Valid formats:
+1] city(A to Z )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid formats:
+1] 1234
+2] state123
+3] 564state
+Valid formats:
+1] state(A to Z )
+</t>
+  </si>
+  <si>
+    <t>1.  Enter invalid Data in Customer id Field 
+2.  Click on 'Submit' button(ER-1)
+3.  Enter Valid Data in Customer id Field 
+4.  Click on 'Submit' button(ER-2)</t>
+  </si>
+  <si>
+    <t>1. Proper warning message should be displayed
+2. Field must recive the data and disply the stored data</t>
+  </si>
+  <si>
+    <t>TC_EC_024</t>
+  </si>
+  <si>
+    <t>Validate Custom Id must be only numaric</t>
+  </si>
+  <si>
+    <t>Invalid  formats:
+1]  1234Acc
+2]  abc123
+3]  axyz
+4]  #@!&amp;*
+Valid  formats: 
+1]  123456 ( equl to 6 digit)</t>
+  </si>
+  <si>
+    <t>Validate Submit button  functionality</t>
+  </si>
+  <si>
+    <t>1.Edit Customer Details into all the Fields (Customer Name,DOB,Address,City,State,PIN, E-Mail,Telephone) 
+2. Click on 'Submit' button</t>
+  </si>
+  <si>
+    <t>1.Edit Customer Details all the Fields (Customer Name,DOB,Address,City,State,PIN, E-Mail,Telephone) 
+2. Click on 'Submit' button</t>
+  </si>
+  <si>
+    <t>1. Edit Customer Details all the Fields (Customer Name,DOB,Address,City,State,PIN, E-Mail,Telephone) 
+2. Click on 'Reset' button</t>
+  </si>
+  <si>
+    <t>1. Conformation Notification recived at telephone number or email and updated data should be stored</t>
+  </si>
+  <si>
+    <t>TC_EC_025</t>
+  </si>
+  <si>
+    <t>Validate the details that are provided while Editing Customer are stored in the Database</t>
+  </si>
+  <si>
+    <t>Validate Editing Customer is posible when 'Male' option is selected for Gender field</t>
+  </si>
+  <si>
+    <t>Validate Editing Customer is posible when 'Female' option is selected for Gender field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Edit Customer Details into all the Fields (Customer Name,DOB,Address,City,State,PIN, E-Mail,Telephone)
+2. Click on 'Submit' button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>1. Edit Customer Details into all the Fields (Customer Name,DOB,Address,City,State,PIN, E-Mail,Telephone)
+2. Select Gender as Male By Radio Button
+3. Click on 'Submit' button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Edit Customer Details into all the Fields (Customer Name,DOB,Address,City,State,PIN, E-Mail,Telephone)
+2. Select Gender as Female By Radio Button
+3. Click on 'Submit' button (ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Edit Customer Details into all the Fields only space
+2. Press TAB and move to next Field 
+</t>
+  </si>
+  <si>
+    <t>1. Edit Customer Details into all the Fields (Customer Name,Address,City,State,PIN, E-Mail,Telephone) starting with space and ending with space</t>
+  </si>
+  <si>
+    <t>Validate whether the Teliphone fields in the Edit Customer page are following Telephone Complexity Standards</t>
+  </si>
+  <si>
+    <t>Validate whether the PIN fields in the Edit Customer page are following PIN Standards</t>
+  </si>
+  <si>
+    <t>Validate whether the Mandatory fields in the Edit customer page are accepting only spaces</t>
+  </si>
+  <si>
+    <t>Validate whether the leading and trailing spaces entered into the Edit Customer Page fields are trimmed</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1466,12 +1683,46 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1877,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1986,9 +2237,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>56</v>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="57" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -1998,12 +2249,12 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="57" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>30</v>
@@ -2012,13 +2263,13 @@
         <v>46</v>
       </c>
       <c r="E15" s="40"/>
-      <c r="F15" s="24">
-        <v>23</v>
+      <c r="F15" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>30</v>
@@ -2033,7 +2284,7 @@
     </row>
     <row r="17" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>30</v>
@@ -2048,7 +2299,7 @@
     </row>
     <row r="18" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -2063,7 +2314,7 @@
     </row>
     <row r="19" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>30</v>
@@ -2078,7 +2329,7 @@
     </row>
     <row r="20" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>30</v>
@@ -2093,7 +2344,7 @@
     </row>
     <row r="21" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -2156,6 +2407,10 @@
       <c r="F28" s="26"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" location="'New Customer'!A1" display="'New Customer'!A1"/>
+    <hyperlink ref="B15" location="'Edit Customer'!A1" display="'Edit Customer'!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -2169,8 +2424,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2211,7 +2466,7 @@
     </row>
     <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>8</v>
@@ -2252,29 +2507,29 @@
     </row>
     <row r="4" spans="2:14" s="42" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="43"/>
       <c r="H4" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="46"/>
@@ -2288,20 +2543,20 @@
         <v>55</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
@@ -2312,23 +2567,23 @@
       <c r="B6" s="51"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
@@ -2339,23 +2594,23 @@
       <c r="B7" s="51"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
@@ -2366,23 +2621,23 @@
       <c r="B8" s="51"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I8" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="43" t="s">
         <v>128</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>130</v>
       </c>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
@@ -2393,23 +2648,23 @@
       <c r="B9" s="51"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
@@ -2420,23 +2675,23 @@
       <c r="B10" s="51"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
@@ -2447,17 +2702,17 @@
       <c r="B11" s="51"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>11</v>
@@ -2474,23 +2729,23 @@
       <c r="B12" s="51"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I12" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
@@ -2501,23 +2756,23 @@
       <c r="B13" s="51"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I13" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
@@ -2528,23 +2783,23 @@
       <c r="B14" s="51"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I14" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
@@ -2555,23 +2810,23 @@
       <c r="B15" s="51"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
@@ -2582,23 +2837,23 @@
       <c r="B16" s="51"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
@@ -2609,23 +2864,23 @@
       <c r="B17" s="51"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
@@ -2636,23 +2891,23 @@
       <c r="B18" s="51"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
@@ -2663,23 +2918,23 @@
       <c r="B19" s="51"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I19" s="46" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
@@ -2690,23 +2945,23 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -2717,23 +2972,23 @@
       <c r="B21" s="51"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -2744,23 +2999,23 @@
       <c r="B22" s="51"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
@@ -2771,23 +3026,23 @@
       <c r="B23" s="51"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
@@ -2798,23 +3053,23 @@
       <c r="B24" s="51"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
@@ -2825,23 +3080,23 @@
       <c r="B25" s="51"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
@@ -2852,17 +3107,17 @@
       <c r="B26" s="51"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="46" t="s">
         <v>11</v>
@@ -2880,6 +3135,747 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="M4:M26">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M26">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2:D2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="42" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="52"/>
+    </row>
+    <row r="5" spans="2:14" s="42" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="52"/>
+    </row>
+    <row r="6" spans="2:14" s="42" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="2:14" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B7" s="51"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="2:14" s="42" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="51"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="52"/>
+    </row>
+    <row r="9" spans="2:14" s="42" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="51"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="52"/>
+    </row>
+    <row r="10" spans="2:14" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="B10" s="51"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="52"/>
+    </row>
+    <row r="11" spans="2:14" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="51"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="2:14" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="51"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="52"/>
+    </row>
+    <row r="13" spans="2:14" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" spans="2:14" s="42" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="B14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="2:14" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="B15" s="51"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="52"/>
+    </row>
+    <row r="16" spans="2:14" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="52"/>
+    </row>
+    <row r="17" spans="2:14" s="42" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="51"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="52"/>
+    </row>
+    <row r="18" spans="2:14" s="42" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="B18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="52"/>
+    </row>
+    <row r="19" spans="2:14" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="B19" s="51"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="52"/>
+    </row>
+    <row r="20" spans="2:14" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B20" s="51"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="52"/>
+    </row>
+    <row r="21" spans="2:14" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B21" s="51"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="52"/>
+    </row>
+    <row r="22" spans="2:14" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B22" s="51"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="52"/>
+    </row>
+    <row r="23" spans="2:14" s="42" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B23" s="51"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="52"/>
+    </row>
+    <row r="24" spans="2:14" s="42" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B24" s="51"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="52"/>
+    </row>
+    <row r="25" spans="2:14" s="42" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B25" s="51"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="52"/>
+    </row>
+    <row r="26" spans="2:14" s="42" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B26" s="51"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <conditionalFormatting sqref="M4:M26">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",M4)))</formula>
@@ -2894,7 +3890,7 @@
       <formula>NOT(ISERROR(SEARCH("PASS",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M26">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
